--- a/HQQFIJ_0314/HQQFIJ_1gyk.xlsx
+++ b/HQQFIJ_0314/HQQFIJ_1gyk.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RCSGit\HQQFIJInfAlk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RCSGit\HQQFIJInfAlk\HQQFIJ_0314\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C02F1A-65DA-46E2-977E-EB8726ECE134}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087D1485-B061-4BA6-8ECF-1651394E45FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{0606155D-90C8-4BF5-9FD9-519A6EC83314}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -211,17 +211,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -839,6 +839,11 @@
               </a:scene3d>
               <a:sp3d prstMaterial="matte"/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-9431-4738-BB22-0ED422A2D7F7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -863,6 +868,11 @@
               </a:scene3d>
               <a:sp3d prstMaterial="matte"/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-9431-4738-BB22-0ED422A2D7F7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -887,6 +897,11 @@
               </a:scene3d>
               <a:sp3d prstMaterial="matte"/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-9431-4738-BB22-0ED422A2D7F7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -911,6 +926,11 @@
               </a:scene3d>
               <a:sp3d prstMaterial="matte"/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-9431-4738-BB22-0ED422A2D7F7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -935,6 +955,11 @@
               </a:scene3d>
               <a:sp3d prstMaterial="matte"/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-9431-4738-BB22-0ED422A2D7F7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -959,6 +984,11 @@
               </a:scene3d>
               <a:sp3d prstMaterial="matte"/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-9431-4738-BB22-0ED422A2D7F7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -985,6 +1015,11 @@
               </a:scene3d>
               <a:sp3d prstMaterial="matte"/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-9431-4738-BB22-0ED422A2D7F7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1300,6 +1335,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-30BE-4F87-89BD-5A251F1C69E8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1320,6 +1360,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-30BE-4F87-89BD-5A251F1C69E8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1340,6 +1385,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-30BE-4F87-89BD-5A251F1C69E8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1360,6 +1410,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-30BE-4F87-89BD-5A251F1C69E8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1380,6 +1435,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-30BE-4F87-89BD-5A251F1C69E8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -1400,6 +1460,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-30BE-4F87-89BD-5A251F1C69E8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -1422,6 +1487,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-30BE-4F87-89BD-5A251F1C69E8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
